--- a/medicine/Enfance/Terre-Dragon/Terre-Dragon.xlsx
+++ b/medicine/Enfance/Terre-Dragon/Terre-Dragon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terre-Dragon est une trilogie fantastique écrite par Erik L'Homme, composée des romans Le Souffle des pierres (2014), Le Chant du fleuve (2014), et Les Sortilèges du vent (2015). Ces romans racontent l'histoire d'Ægir (dit Peau d'Ours), un garçon orphelin gardé mystérieusement prisonnier dans une cage (au début du premier tome), qui se révèle être un Dakan (humain ayant la capacité de se transformer involontairement en ours).
 Les différents personnages aux buts et ambitions variées sont accompagnés du Voyage de Rosk-le-Borgne, un chant traditionnel contant le périple de ce dernier dans le royaume en des temps anciens.
@@ -514,15 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Situation
-L’histoire se situe dans le royaume de Terre-Dragon, sillonné par le fleuve métallique, une large rivière faite de métal liquide (pourtant tiède) sur laquelle voguent des bateaux en pierre. La population se divise en trois clans et trois tribus répartis sur tout le territoire. La société est de type médiévale.
-Politique
-Le dirigeant de Terre-Dragon est le Roi-Dragon (bien que dans les premiers tomes, le lecteur ne sache pas si le Roi est vraiment vivant).
-Les clans et tribus sont souveraines sur leurs terres. L'équilibre des rapports de forces est maintenu par la crainte du Roi-Dragon, qui a donné pour seules règles de laisser le fleuve et ses abords navigables, et de ne pas empiéter sur la souveraineté des autres.
-Religion et magie
-La religion et la magie sont liées ; la majorité du peuple (à part le Crâne) croit à trois divinités, le Chevaucheur du Vent, la Reine des Montagnes, et le Maître de la Foudre.
-La magie (dont seuls les sorciers peuvent faire usage) est le pouvoir des thun-lawz, caractères tracés sur des jetons de différentes formes et de différentes matières, rappelant les runes du futhark. Ils ont été donnés par les dieux afin de remplacer l'ancienne magie élémentaire autrefois usitée dans le royaume.
-Les prêtres du Crâne utilisent une autre magie obscure dont ils ont le secret.
+          <t>Situation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’histoire se situe dans le royaume de Terre-Dragon, sillonné par le fleuve métallique, une large rivière faite de métal liquide (pourtant tiède) sur laquelle voguent des bateaux en pierre. La population se divise en trois clans et trois tribus répartis sur tout le territoire. La société est de type médiévale.
 </t>
         </is>
       </c>
@@ -548,10 +558,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Univers de Terre-Dragon</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dirigeant de Terre-Dragon est le Roi-Dragon (bien que dans les premiers tomes, le lecteur ne sache pas si le Roi est vraiment vivant).
+Les clans et tribus sont souveraines sur leurs terres. L'équilibre des rapports de forces est maintenu par la crainte du Roi-Dragon, qui a donné pour seules règles de laisser le fleuve et ses abords navigables, et de ne pas empiéter sur la souveraineté des autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terre-Dragon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terre-Dragon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Univers de Terre-Dragon</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Religion et magie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La religion et la magie sont liées ; la majorité du peuple (à part le Crâne) croit à trois divinités, le Chevaucheur du Vent, la Reine des Montagnes, et le Maître de la Foudre.
+La magie (dont seuls les sorciers peuvent faire usage) est le pouvoir des thun-lawz, caractères tracés sur des jetons de différentes formes et de différentes matières, rappelant les runes du futhark. Ils ont été donnés par les dieux afin de remplacer l'ancienne magie élémentaire autrefois usitée dans le royaume.
+Les prêtres du Crâne utilisent une autre magie obscure dont ils ont le secret.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terre-Dragon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terre-Dragon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On suit l'histoire au travers de différents personnages :
 Aegir
